--- a/data_year/zb/国民经济核算/资金流量表(实物交易)/住户部门/资金运用.xlsx
+++ b/data_year/zb/国民经济核算/资金流量表(实物交易)/住户部门/资金运用.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,1474 +603,882 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>242.037926941889</v>
-      </c>
-      <c r="C2" t="n">
-        <v>17.8</v>
-      </c>
+        <v>3609.89511517689</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>-147.322141844454</v>
+        <v>-9889.50151663675</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>13144.0207389161</v>
+        <v>71639.42804795491</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>1095.1917550351</v>
+        <v>4659.19311495106</v>
       </c>
       <c r="J2" t="n">
-        <v>19137.1151961326</v>
+        <v>68530.9711391067</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>7493.37045508579</v>
+        <v>38161.369</v>
       </c>
       <c r="N2" t="n">
-        <v>3.4275</v>
+        <v>26.5985</v>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
-        <v>194</v>
+        <v>2451.84485870755</v>
       </c>
       <c r="Q2" t="n">
-        <v>45854.6</v>
+        <v>140758.6</v>
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>659.64</v>
+        <v>4837.27</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>45854.6</v>
+        <v>140758.6</v>
       </c>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>1159.83607141473</v>
+        <v>1015.2185466164</v>
       </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>2321.5344</v>
+        <v>17339.6011</v>
       </c>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="n">
-        <v>3223.21232694189</v>
+        <v>25786.7662151769</v>
       </c>
       <c r="AF2" t="n">
-        <v>1116.4192550351</v>
+        <v>4685.79161495106</v>
       </c>
       <c r="AG2" t="n">
-        <v>7687.37045508579</v>
+        <v>40613.2138587076</v>
       </c>
       <c r="AH2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>321.077239519726</v>
-      </c>
-      <c r="C3" t="n">
-        <v>19.17</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>3962.58291437853</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>57.2925</v>
+      </c>
       <c r="E3" t="n">
-        <v>-320.547523944825</v>
+        <v>-14592.9993738028</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>14260.3042435603</v>
+        <v>74356.3689781304</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>1001.52813369444</v>
+        <v>8287.25429134176</v>
       </c>
       <c r="J3" t="n">
-        <v>20700.6725347018</v>
+        <v>80385.4693127611</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>9015.27219831979</v>
+        <v>53887.3324</v>
       </c>
       <c r="N3" t="n">
-        <v>3.7</v>
+        <v>42.3179</v>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>-525.585498069498</v>
+        <v>3107.98803699379</v>
       </c>
       <c r="Q3" t="n">
-        <v>49435.9</v>
+        <v>168956.6</v>
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>995.26</v>
+        <v>6054.11</v>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="n">
-        <v>49435.9</v>
+        <v>168956.6</v>
       </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="n">
-        <v>999.260173915824</v>
+        <v>1220.45354221756</v>
       </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="n">
-        <v>2741.2838</v>
+        <v>21801.2045</v>
       </c>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="n">
-        <v>4057.62103951973</v>
+        <v>31817.8974143785</v>
       </c>
       <c r="AF3" t="n">
-        <v>1024.39813369444</v>
+        <v>8329.57219134176</v>
       </c>
       <c r="AG3" t="n">
-        <v>8489.68670025029</v>
+        <v>56995.3204369938</v>
       </c>
       <c r="AH3" t="n">
-        <v>4</v>
+        <v>57.2925</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>466.693331306313</v>
-      </c>
-      <c r="C4" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>4797.66565315812</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>57.2925</v>
+      </c>
       <c r="E4" t="n">
-        <v>-597.810840950626</v>
+        <v>-14451.8286261369</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>14260.7286517286</v>
+        <v>82437.0886353621</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>916.017810583616</v>
+        <v>11202.2844756485</v>
       </c>
       <c r="J4" t="n">
-        <v>23023.2359017231</v>
+        <v>93667.8195741854</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>10264.3244123405</v>
+        <v>60068.0041</v>
       </c>
       <c r="N4" t="n">
-        <v>5.6953</v>
+        <v>51.0847</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>439.477263321262</v>
+        <v>2703.99843715111</v>
       </c>
       <c r="Q4" t="n">
-        <v>53056.6</v>
+        <v>190584.6</v>
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>1211.78</v>
+        <v>6163.63191200473</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>53056.6</v>
+        <v>190584.6</v>
       </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="n">
-        <v>1081.89499905777</v>
+        <v>1992.02133467035</v>
       </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="n">
-        <v>3483.6</v>
+        <v>25061.6039</v>
       </c>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="n">
-        <v>5162.07333130631</v>
+        <v>36022.9014651629</v>
       </c>
       <c r="AF4" t="n">
-        <v>941.813110583616</v>
+        <v>11253.3691756485</v>
       </c>
       <c r="AG4" t="n">
-        <v>10703.8016756617</v>
-      </c>
-      <c r="AH4" t="inlineStr"/>
+        <v>62772.0025371511</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>57.2925</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>571.04857881405</v>
-      </c>
-      <c r="C5" t="n">
-        <v>28.36</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>5655.79718310687</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>384.6139</v>
+      </c>
       <c r="E5" t="n">
-        <v>-1586.10333563752</v>
+        <v>-23371.6418938872</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>17940.5142469795</v>
+        <v>87703.4947278702</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>928.223893695826</v>
+        <v>7598.53544909914</v>
       </c>
       <c r="J5" t="n">
-        <v>25725.8098602902</v>
+        <v>101415.272817583</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>13189.3205435322</v>
+        <v>69897.8958</v>
       </c>
       <c r="N5" t="n">
-        <v>10.4124</v>
+        <v>57.7995</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>74.91818181818179</v>
+        <v>2736.49629426221</v>
       </c>
       <c r="Q5" t="n">
-        <v>57649.8</v>
+        <v>219762.5</v>
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>1418.0331</v>
+        <v>6603.1764</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>57649.8</v>
+        <v>219762.5</v>
       </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="n">
-        <v>1548.91501813479</v>
+        <v>2950.5608506155</v>
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="n">
-        <v>4324.9</v>
+        <v>28567.8234</v>
       </c>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="n">
-        <v>6313.98167881405</v>
+        <v>40826.7969831069</v>
       </c>
       <c r="AF5" t="n">
-        <v>966.996293695826</v>
+        <v>7656.33494909914</v>
       </c>
       <c r="AG5" t="n">
-        <v>13264.2387253504</v>
-      </c>
-      <c r="AH5" t="inlineStr"/>
+        <v>72634.39209426221</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>384.6139</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>747.963716367655</v>
-      </c>
-      <c r="C6" t="n">
-        <v>36.76</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>5822.02223973978</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>98.685</v>
+      </c>
       <c r="E6" t="n">
-        <v>-1586.09838849509</v>
+        <v>-17480.1518512296</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>17435.4621749279</v>
+        <v>89343.4766281607</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>1010.02620976331</v>
+        <v>9301.489377019359</v>
       </c>
       <c r="J6" t="n">
-        <v>29647.2641466147</v>
+        <v>109675.08439062</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>17021.3685263994</v>
+        <v>73499.43799999999</v>
       </c>
       <c r="N6" t="n">
-        <v>10.4124</v>
+        <v>58.5875</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>419.703108374664</v>
+        <v>3108.50348638906</v>
       </c>
       <c r="Q6" t="n">
-        <v>65218.48</v>
+        <v>242540</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>1737.06</v>
+        <v>7720.6436</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>65218.48</v>
+        <v>242540</v>
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="n">
-        <v>1202.08541023812</v>
+        <v>3148.2693502774</v>
       </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="n">
-        <v>5167.68</v>
+        <v>31992.088135</v>
       </c>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
-        <v>7652.70371636766</v>
+        <v>45534.7539747398</v>
       </c>
       <c r="AF6" t="n">
-        <v>1057.19860976331</v>
+        <v>9360.076877019361</v>
       </c>
       <c r="AG6" t="n">
-        <v>17441.071634774</v>
-      </c>
-      <c r="AH6" t="inlineStr"/>
+        <v>76607.9414863891</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>98.685</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1166.82847774986</v>
-      </c>
-      <c r="C7" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>6141.12648430569</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>95.6014</v>
+      </c>
       <c r="E7" t="n">
-        <v>-1455.40406111172</v>
+        <v>-15596.0636277438</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>19526.7435993639</v>
+        <v>98432.6721206428</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>1154.29768873824</v>
+        <v>10170.858029801</v>
       </c>
       <c r="J7" t="n">
-        <v>34220.0491077147</v>
+        <v>117323.054892</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>21504.6253908483</v>
+        <v>70935.2645</v>
       </c>
       <c r="N7" t="n">
-        <v>13.7227</v>
+        <v>45.337</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>375.491659404494</v>
+        <v>2781.63493416201</v>
       </c>
       <c r="Q7" t="n">
-        <v>72958.7</v>
+        <v>265980.1</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>2094.9104</v>
+        <v>8891.44682100144</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>72958.7</v>
+        <v>265980.1</v>
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="n">
-        <v>1290.1053196487</v>
+        <v>4188.00162442042</v>
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="n">
-        <v>6307.1</v>
+        <v>36109.9159350195</v>
       </c>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="n">
-        <v>9568.838877749849</v>
+        <v>51142.4892403266</v>
       </c>
       <c r="AF7" t="n">
-        <v>1214.32038873824</v>
+        <v>10216.195029801</v>
       </c>
       <c r="AG7" t="n">
-        <v>21880.1170502527</v>
-      </c>
-      <c r="AH7" t="inlineStr"/>
+        <v>73716.899434162</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>95.6014</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1462.40857834056</v>
-      </c>
-      <c r="C8" t="n">
-        <v>69.7</v>
-      </c>
+        <v>6456.91426005953</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>-1998.06294319435</v>
+        <v>-19087.9583019541</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>30213.5370647289</v>
+        <v>132508.188778819</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>1925.69813104232</v>
+        <v>9927.93007957354</v>
       </c>
       <c r="J8" t="n">
-        <v>39153.5860756088</v>
+        <v>126551.733486287</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>20117.3783</v>
+        <v>51730.4969870988</v>
       </c>
       <c r="N8" t="n">
-        <v>19.3706</v>
+        <v>31.7783598939032</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>518.0645162405229</v>
+        <v>940.916023717431</v>
       </c>
       <c r="Q8" t="n">
-        <v>82575.5</v>
+        <v>293443.1</v>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>2453.7087</v>
+        <v>10153.1819</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>82575.5</v>
+        <v>293443.1</v>
       </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="n">
-        <v>1420.5222756318</v>
+        <v>4390.34455534953</v>
       </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="n">
-        <v>7682.8</v>
+        <v>39023.8677</v>
       </c>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="n">
-        <v>11598.9172783406</v>
+        <v>55633.9638600595</v>
       </c>
       <c r="AF8" t="n">
-        <v>2014.76873104232</v>
+        <v>9959.708439467449</v>
       </c>
       <c r="AG8" t="n">
-        <v>20635.4428162405</v>
+        <v>52671.4130108163</v>
       </c>
       <c r="AH8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2122.12582486947</v>
+        <v>7518.67648684781</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>-3021.89269557244</v>
+        <v>-26755.3250177096</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>42243.1840035948</v>
+        <v>156290.517617431</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>2666.17026582747</v>
+        <v>11091.96173673</v>
       </c>
       <c r="J9" t="n">
-        <v>46608.6069939085</v>
+        <v>118993.443120321</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>22280.11</v>
+        <v>49787.3253742966</v>
       </c>
       <c r="N9" t="n">
-        <v>24.4399</v>
+        <v>29.9931</v>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>724.732058647088</v>
+        <v>1241.56488281706</v>
       </c>
       <c r="Q9" t="n">
-        <v>96332.5</v>
+        <v>317964</v>
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>3185.58</v>
+        <v>12011.3748</v>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>96332.5</v>
+        <v>317964</v>
       </c>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="n">
-        <v>2773.36464163105</v>
+        <v>4998.51944353875</v>
       </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="n">
-        <v>9593.43</v>
+        <v>46085.81</v>
       </c>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="n">
-        <v>14901.1358248695</v>
+        <v>65615.86128684779</v>
       </c>
       <c r="AF9" t="n">
-        <v>2690.61016582747</v>
+        <v>11121.95483673</v>
       </c>
       <c r="AG9" t="n">
-        <v>23004.8420586471</v>
+        <v>51028.8902571136</v>
       </c>
       <c r="AH9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2512.42172788941</v>
+        <v>11503.6794443754</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>-4336.30407463475</v>
+        <v>-33731.3068595765</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>51160.1743361085</v>
+        <v>120028.310863916</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>3637.51780639995</v>
+        <v>10759.4432800446</v>
       </c>
       <c r="J10" t="n">
-        <v>54722.5112743967</v>
+        <v>124589.155947145</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>24918.393</v>
+        <v>101880.735421707</v>
       </c>
       <c r="N10" t="n">
-        <v>24.4399</v>
+        <v>22.6601</v>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>2513.64543</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>111670.4</v>
-      </c>
+        <v>998.8260874800779</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>3722.31</v>
+        <v>13904.13647</v>
       </c>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="n">
-        <v>111670.4</v>
-      </c>
+      <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="n">
-        <v>2066.59331512777</v>
+        <v>1285.11420032182</v>
       </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="n">
-        <v>12135.27</v>
+        <v>61347.75</v>
       </c>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="n">
-        <v>18370.0017278894</v>
+        <v>86755.5659143754</v>
       </c>
       <c r="AF10" t="n">
-        <v>3661.95770639995</v>
+        <v>10782.1033800446</v>
       </c>
       <c r="AG10" t="n">
-        <v>27432.03843</v>
+        <v>102879.561509187</v>
       </c>
       <c r="AH10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3085.89734497003</v>
+        <v>12243.5447184239</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>-6570.48347713665</v>
+        <v>-35313.59742681</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>56337.8794127962</v>
+        <v>125088.761663461</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>3468.4682336687</v>
+        <v>12930.0285637941</v>
       </c>
       <c r="J11" t="n">
-        <v>60186.5788584932</v>
+        <v>136534.147281222</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>32039.8471</v>
+        <v>117344.020199209</v>
       </c>
       <c r="N11" t="n">
-        <v>26.5985</v>
+        <v>14.5227</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>1910.52782376729</v>
+        <v>-594.536664495609</v>
       </c>
       <c r="Q11" t="n">
-        <v>123584.6</v>
+        <v>445657.658061971</v>
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>3949.344512</v>
+        <v>10398.79788</v>
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>123584.6</v>
+        <v>445657.658061971</v>
       </c>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="n">
-        <v>602.722580233401</v>
+        <v>1493.19282550045</v>
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="n">
-        <v>14420.9</v>
+        <v>64049.01</v>
       </c>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="n">
-        <v>21456.14185697</v>
+        <v>86691.35259842389</v>
       </c>
       <c r="AF11" t="n">
-        <v>3495.0667336687</v>
+        <v>12944.5512637941</v>
       </c>
       <c r="AG11" t="n">
-        <v>33950.3749237673</v>
+        <v>116749.483534713</v>
       </c>
       <c r="AH11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3609.89511517689</v>
+        <v>12489.6345586526</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>-9889.50151663675</v>
+        <v>-34925.2016274927</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>71639.42804795491</v>
+        <v>147423.267449212</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>4659.19311495106</v>
+        <v>14482.917536449</v>
       </c>
       <c r="J12" t="n">
-        <v>68530.9711391067</v>
+        <v>136760.542887077</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>38161.369</v>
+        <v>124227.792479749</v>
       </c>
       <c r="N12" t="n">
-        <v>26.5985</v>
+        <v>13.8784</v>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>2451.84485870755</v>
+        <v>1886.83633304298</v>
       </c>
       <c r="Q12" t="n">
-        <v>140758.6</v>
+        <v>455204.913698961</v>
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>4837.27</v>
+        <v>11576.29292</v>
       </c>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>140758.6</v>
+        <v>455204.913698961</v>
       </c>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="n">
-        <v>1015.2185466164</v>
+        <v>608.533654388035</v>
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="n">
-        <v>17339.6011</v>
+        <v>54847.98</v>
       </c>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>25786.7662151769</v>
+        <v>78913.9074786526</v>
       </c>
       <c r="AF12" t="n">
-        <v>4685.79161495106</v>
+        <v>14496.795936449</v>
       </c>
       <c r="AG12" t="n">
-        <v>40613.2138587076</v>
+        <v>126114.628812792</v>
       </c>
       <c r="AH12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3962.58291437853</v>
+        <v>13387.4347530844</v>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="n">
-        <v>57.2925</v>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>-14592.9993738028</v>
+        <v>-34969.2889919616</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>74356.3689781304</v>
+        <v>143022.543135265</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>8287.25429134176</v>
+        <v>16586.1318309468</v>
       </c>
       <c r="J13" t="n">
-        <v>80385.4693127611</v>
+        <v>150797.216136301</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>53887.3324</v>
+        <v>133222.787329627</v>
       </c>
       <c r="N13" t="n">
-        <v>42.3179</v>
+        <v>6.997</v>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>3107.98803699379</v>
+        <v>2314.58091252835</v>
       </c>
       <c r="Q13" t="n">
-        <v>168956.6</v>
+        <v>511336.167328733</v>
       </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>6054.11</v>
+        <v>14001.3519611707</v>
       </c>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>168956.6</v>
+        <v>511336.167328733</v>
       </c>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="n">
-        <v>1220.45354221756</v>
+        <v>89.9032072151399</v>
       </c>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="n">
-        <v>21801.2045</v>
+        <v>74270.47</v>
       </c>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="n">
-        <v>31817.8974143785</v>
+        <v>101659.256714255</v>
       </c>
       <c r="AF13" t="n">
-        <v>8329.57219134176</v>
+        <v>16593.1288309468</v>
       </c>
       <c r="AG13" t="n">
-        <v>56995.3204369938</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>57.2925</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>4797.66565315812</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>57.2925</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-14451.8286261369</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>82437.0886353621</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
-        <v>11202.2844756485</v>
-      </c>
-      <c r="J14" t="n">
-        <v>93667.8195741854</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>60068.0041</v>
-      </c>
-      <c r="N14" t="n">
-        <v>51.0847</v>
-      </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="n">
-        <v>2703.99843715111</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>190584.6</v>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="n">
-        <v>6163.63191200473</v>
-      </c>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="n">
-        <v>190584.6</v>
-      </c>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="n">
-        <v>1992.02133467035</v>
-      </c>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="n">
-        <v>25061.6039</v>
-      </c>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="n">
-        <v>36022.9014651629</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>11253.3691756485</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>62772.0025371511</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>57.2925</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5655.79718310687</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>384.6139</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-23371.6418938872</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>87703.4947278702</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>7598.53544909914</v>
-      </c>
-      <c r="J15" t="n">
-        <v>101415.272817583</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>69897.8958</v>
-      </c>
-      <c r="N15" t="n">
-        <v>57.7995</v>
-      </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="n">
-        <v>2736.49629426221</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>219762.5</v>
-      </c>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="n">
-        <v>6603.1764</v>
-      </c>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="n">
-        <v>219762.5</v>
-      </c>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="n">
-        <v>2950.5608506155</v>
-      </c>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="n">
-        <v>28567.8234</v>
-      </c>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="n">
-        <v>40826.7969831069</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>7656.33494909914</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>72634.39209426221</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>384.6139</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5822.02223973978</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>98.685</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-17480.1518512296</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
-        <v>89343.4766281607</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>9301.489377019359</v>
-      </c>
-      <c r="J16" t="n">
-        <v>109675.08439062</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>73499.43799999999</v>
-      </c>
-      <c r="N16" t="n">
-        <v>58.5875</v>
-      </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="n">
-        <v>3108.50348638906</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>242540</v>
-      </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="n">
-        <v>7720.6436</v>
-      </c>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="n">
-        <v>242540</v>
-      </c>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="n">
-        <v>3148.2693502774</v>
-      </c>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="n">
-        <v>31992.088135</v>
-      </c>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="n">
-        <v>45534.7539747398</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>9360.076877019361</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>76607.9414863891</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>98.685</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>6141.12648430569</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>95.6014</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-15596.0636277438</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>98432.6721206428</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>10170.858029801</v>
-      </c>
-      <c r="J17" t="n">
-        <v>117323.054892</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>70935.2645</v>
-      </c>
-      <c r="N17" t="n">
-        <v>45.337</v>
-      </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="n">
-        <v>2781.63493416201</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>265980.1</v>
-      </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="n">
-        <v>8891.44682100144</v>
-      </c>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="n">
-        <v>265980.1</v>
-      </c>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="n">
-        <v>4188.00162442042</v>
-      </c>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="n">
-        <v>36109.9159350195</v>
-      </c>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="n">
-        <v>51142.4892403266</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>10216.195029801</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>73716.899434162</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>95.6014</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>6456.91426005953</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>-19087.9583019541</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
-        <v>132508.188778819</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>9927.93007957354</v>
-      </c>
-      <c r="J18" t="n">
-        <v>126551.733486287</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>51730.4969870988</v>
-      </c>
-      <c r="N18" t="n">
-        <v>31.7783598939032</v>
-      </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="n">
-        <v>940.916023717431</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>293443.1</v>
-      </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="n">
-        <v>10153.1819</v>
-      </c>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="n">
-        <v>293443.1</v>
-      </c>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="n">
-        <v>4390.34455534953</v>
-      </c>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="n">
-        <v>39023.8677</v>
-      </c>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="n">
-        <v>55633.9638600595</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>9959.708439467449</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>52671.4130108163</v>
-      </c>
-      <c r="AH18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7518.67648684781</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>-26755.3250177096</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>156290.517617431</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>11091.96173673</v>
-      </c>
-      <c r="J19" t="n">
-        <v>118993.443120321</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>49787.3253742966</v>
-      </c>
-      <c r="N19" t="n">
-        <v>29.9931</v>
-      </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="n">
-        <v>1241.56488281706</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>317964</v>
-      </c>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="n">
-        <v>12011.3748</v>
-      </c>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="n">
-        <v>317964</v>
-      </c>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="n">
-        <v>4998.51944353875</v>
-      </c>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="n">
-        <v>46085.81</v>
-      </c>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="n">
-        <v>65615.86128684779</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>11121.95483673</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>51028.8902571136</v>
-      </c>
-      <c r="AH19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>11503.6794443754</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>-33731.3068595765</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>120028.310863916</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
-        <v>10759.4432800446</v>
-      </c>
-      <c r="J20" t="n">
-        <v>124589.155947145</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>101880.735421707</v>
-      </c>
-      <c r="N20" t="n">
-        <v>22.6601</v>
-      </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="n">
-        <v>998.8260874800779</v>
-      </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="n">
-        <v>13904.13647</v>
-      </c>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="n">
-        <v>1285.11420032182</v>
-      </c>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="n">
-        <v>61347.75</v>
-      </c>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="n">
-        <v>86755.5659143754</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>10782.1033800446</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>102879.561509187</v>
-      </c>
-      <c r="AH20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>12243.5447184239</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>-35313.59742681</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
-        <v>125088.761663461</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="n">
-        <v>12930.0285637941</v>
-      </c>
-      <c r="J21" t="n">
-        <v>136534.147281222</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>117344.020199209</v>
-      </c>
-      <c r="N21" t="n">
-        <v>14.5227</v>
-      </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="n">
-        <v>-594.536664495609</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>445657.658061971</v>
-      </c>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="n">
-        <v>10398.79788</v>
-      </c>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="n">
-        <v>445657.658061971</v>
-      </c>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="n">
-        <v>1493.19282550045</v>
-      </c>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="n">
-        <v>64049.01</v>
-      </c>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="n">
-        <v>86691.35259842389</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>12944.5512637941</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>116749.483534713</v>
-      </c>
-      <c r="AH21" t="inlineStr"/>
+        <v>135537.368242155</v>
+      </c>
+      <c r="AH13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
